--- a/Code/Results/Cases/Case_8_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.060520242025405</v>
+        <v>1.010461595374352</v>
       </c>
       <c r="C2">
-        <v>0.09844663444702206</v>
+        <v>0.1119663341122674</v>
       </c>
       <c r="D2">
-        <v>0.08897306160091745</v>
+        <v>0.09603602464299144</v>
       </c>
       <c r="E2">
-        <v>0.05531067432804626</v>
+        <v>0.05750987032807409</v>
       </c>
       <c r="F2">
-        <v>0.8313726251036044</v>
+        <v>0.7460749375845239</v>
       </c>
       <c r="G2">
-        <v>0.0008280778717622474</v>
+        <v>0.02334646671112306</v>
       </c>
       <c r="H2">
-        <v>0.00911421718212943</v>
+        <v>0.005674696163352644</v>
       </c>
       <c r="I2">
-        <v>0.01015187317891497</v>
+        <v>0.005600973734471104</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4930492323142026</v>
+        <v>0.423313755892174</v>
       </c>
       <c r="L2">
-        <v>0.06128216258973218</v>
+        <v>0.1904039283101113</v>
       </c>
       <c r="M2">
-        <v>0.9232355370799041</v>
+        <v>0.130401990757905</v>
       </c>
       <c r="N2">
-        <v>0.2158013717989462</v>
+        <v>0.06126203635768412</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9287175550041411</v>
       </c>
       <c r="P2">
-        <v>1.03699255522399</v>
+        <v>0.2326416431184413</v>
       </c>
       <c r="Q2">
-        <v>2.121954626611739</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.9549566113496848</v>
+      </c>
+      <c r="S2">
+        <v>1.842286427466988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9269591019120469</v>
+        <v>0.884996784306054</v>
       </c>
       <c r="C3">
-        <v>0.08965988336674968</v>
+        <v>0.1008450525921916</v>
       </c>
       <c r="D3">
-        <v>0.07959853098358138</v>
+        <v>0.08660897400726242</v>
       </c>
       <c r="E3">
-        <v>0.05148239444595681</v>
+        <v>0.05415113292567852</v>
       </c>
       <c r="F3">
-        <v>0.8084857346843037</v>
+        <v>0.7246213897005802</v>
       </c>
       <c r="G3">
-        <v>0.0008307099687353066</v>
+        <v>0.02718135931910493</v>
       </c>
       <c r="H3">
-        <v>0.01153718821297879</v>
+        <v>0.0073831720188339</v>
       </c>
       <c r="I3">
-        <v>0.01250085977664916</v>
+        <v>0.007017368825200876</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4907235618925085</v>
+        <v>0.4218924013054774</v>
       </c>
       <c r="L3">
-        <v>0.05847366103577123</v>
+        <v>0.194066678054444</v>
       </c>
       <c r="M3">
-        <v>0.8039995271645068</v>
+        <v>0.1273056523214517</v>
       </c>
       <c r="N3">
-        <v>0.1927315530144327</v>
+        <v>0.05903396734282396</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8095796473561165</v>
       </c>
       <c r="P3">
-        <v>1.067583563226024</v>
+        <v>0.2079870530462671</v>
       </c>
       <c r="Q3">
-        <v>2.088259179761423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.9798683988256194</v>
+      </c>
+      <c r="S3">
+        <v>1.809278771390524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.844635552723048</v>
+        <v>0.8074258493005004</v>
       </c>
       <c r="C4">
-        <v>0.08431154847765754</v>
+        <v>0.09411269584499848</v>
       </c>
       <c r="D4">
-        <v>0.07386524617409407</v>
+        <v>0.08085954921749305</v>
       </c>
       <c r="E4">
-        <v>0.04911732732610119</v>
+        <v>0.05207438158373456</v>
       </c>
       <c r="F4">
-        <v>0.7949103965594588</v>
+        <v>0.7117111688369633</v>
       </c>
       <c r="G4">
-        <v>0.0008323867367407667</v>
+        <v>0.02977413865637835</v>
       </c>
       <c r="H4">
-        <v>0.01323152635213881</v>
+        <v>0.008590982252609902</v>
       </c>
       <c r="I4">
-        <v>0.0141626778130588</v>
+        <v>0.008049964599191828</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4895158250970333</v>
+        <v>0.4211073201991837</v>
       </c>
       <c r="L4">
-        <v>0.05671050131736877</v>
+        <v>0.1963504470842921</v>
       </c>
       <c r="M4">
-        <v>0.7307205039636528</v>
+        <v>0.1259417843156836</v>
       </c>
       <c r="N4">
-        <v>0.1786262486442283</v>
+        <v>0.05762514418238318</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7362562220042435</v>
       </c>
       <c r="P4">
-        <v>1.086970070639333</v>
+        <v>0.1929388218224233</v>
       </c>
       <c r="Q4">
-        <v>2.068944987878723</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.9957037043728203</v>
+      </c>
+      <c r="S4">
+        <v>1.789689958767042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8103276404612529</v>
+        <v>0.7750114203583394</v>
       </c>
       <c r="C5">
-        <v>0.08230379781451092</v>
+        <v>0.09157512465455397</v>
       </c>
       <c r="D5">
-        <v>0.0715611240102092</v>
+        <v>0.07855400442093696</v>
       </c>
       <c r="E5">
-        <v>0.04812924600503976</v>
+        <v>0.05120430636050699</v>
       </c>
       <c r="F5">
-        <v>0.7890330117753308</v>
+        <v>0.7060630909325241</v>
       </c>
       <c r="G5">
-        <v>0.0008330900920053286</v>
+        <v>0.03089665657184237</v>
       </c>
       <c r="H5">
-        <v>0.01397696268856566</v>
+        <v>0.009125296010060444</v>
       </c>
       <c r="I5">
-        <v>0.01498117119140829</v>
+        <v>0.0086067121881932</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4887319723308039</v>
+        <v>0.4204826983755083</v>
       </c>
       <c r="L5">
-        <v>0.0559469127912795</v>
+        <v>0.1971289184663298</v>
       </c>
       <c r="M5">
-        <v>0.7007744545082346</v>
+        <v>0.1254367521947088</v>
       </c>
       <c r="N5">
-        <v>0.1730203483839858</v>
+        <v>0.05700743698958632</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7062667993851903</v>
       </c>
       <c r="P5">
-        <v>1.09494046481653</v>
+        <v>0.1869599570547393</v>
       </c>
       <c r="Q5">
-        <v>2.060104234389115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1.00224432939754</v>
+      </c>
+      <c r="S5">
+        <v>1.780608069507537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8037946569665451</v>
+        <v>0.7688021676528081</v>
       </c>
       <c r="C6">
-        <v>0.08216974974028091</v>
+        <v>0.09138060299020623</v>
       </c>
       <c r="D6">
-        <v>0.07121186561944626</v>
+        <v>0.07820602825569267</v>
       </c>
       <c r="E6">
-        <v>0.04793990105837409</v>
+        <v>0.05103509240927551</v>
       </c>
       <c r="F6">
-        <v>0.7874996874426188</v>
+        <v>0.7045784468457441</v>
       </c>
       <c r="G6">
-        <v>0.0008332134900265117</v>
+        <v>0.03109605873902088</v>
       </c>
       <c r="H6">
-        <v>0.01410943387673619</v>
+        <v>0.009220548943135842</v>
       </c>
       <c r="I6">
-        <v>0.01523474425474536</v>
+        <v>0.008827895708541256</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4881826018333371</v>
+        <v>0.4199822087400129</v>
       </c>
       <c r="L6">
-        <v>0.05577660718600086</v>
+        <v>0.1970627940130179</v>
       </c>
       <c r="M6">
-        <v>0.6957232799384343</v>
+        <v>0.1252576937340386</v>
       </c>
       <c r="N6">
-        <v>0.1722478796665143</v>
+        <v>0.05686369985629014</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7012062572080993</v>
       </c>
       <c r="P6">
-        <v>1.096178412351608</v>
+        <v>0.1861304132385868</v>
       </c>
       <c r="Q6">
-        <v>2.05706067349594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1.003284858541104</v>
+      </c>
+      <c r="S6">
+        <v>1.777566511052498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8418955204811027</v>
+        <v>0.8033278884415722</v>
       </c>
       <c r="C7">
-        <v>0.08482846040637781</v>
+        <v>0.09412486889575433</v>
       </c>
       <c r="D7">
-        <v>0.0739245117932299</v>
+        <v>0.08138760739767292</v>
       </c>
       <c r="E7">
-        <v>0.04903566644535573</v>
+        <v>0.05208795106081077</v>
       </c>
       <c r="F7">
-        <v>0.7932908614501244</v>
+        <v>0.7074629189898261</v>
       </c>
       <c r="G7">
-        <v>0.0008324113774226166</v>
+        <v>0.03027463911921746</v>
       </c>
       <c r="H7">
-        <v>0.01325612344569405</v>
+        <v>0.008624921621071063</v>
       </c>
       <c r="I7">
-        <v>0.01446938071968784</v>
+        <v>0.008401185050879612</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4883529183103619</v>
+        <v>0.4186899732607721</v>
       </c>
       <c r="L7">
-        <v>0.05658321830192392</v>
+        <v>0.1952089231804592</v>
       </c>
       <c r="M7">
-        <v>0.7301043359967707</v>
+        <v>0.125275951949618</v>
       </c>
       <c r="N7">
-        <v>0.1789818764933528</v>
+        <v>0.0574764271928867</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7331969605207291</v>
       </c>
       <c r="P7">
-        <v>1.086832245337484</v>
+        <v>0.1931394841734999</v>
       </c>
       <c r="Q7">
-        <v>2.064472165397774</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.9954762625854539</v>
+      </c>
+      <c r="S7">
+        <v>1.777253284480082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.011489455053265</v>
+        <v>0.9595669906637454</v>
       </c>
       <c r="C8">
-        <v>0.09613399450855553</v>
+        <v>0.1070087040472245</v>
       </c>
       <c r="D8">
-        <v>0.08585595523304335</v>
+        <v>0.09446582024414596</v>
       </c>
       <c r="E8">
-        <v>0.05390327687541685</v>
+        <v>0.05657685014904068</v>
       </c>
       <c r="F8">
-        <v>0.821349190642394</v>
+        <v>0.7278629318375351</v>
       </c>
       <c r="G8">
-        <v>0.00082899189649242</v>
+        <v>0.02683069886751888</v>
       </c>
       <c r="H8">
-        <v>0.009921678446227714</v>
+        <v>0.00628408117542012</v>
       </c>
       <c r="I8">
-        <v>0.01127102234200095</v>
+        <v>0.006497135369920137</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4906855654933295</v>
+        <v>0.417080411010339</v>
       </c>
       <c r="L8">
-        <v>0.0601676791961232</v>
+        <v>0.1891406150291637</v>
       </c>
       <c r="M8">
-        <v>0.8818472339932271</v>
+        <v>0.1274384068559833</v>
       </c>
       <c r="N8">
-        <v>0.2084083264301313</v>
+        <v>0.06026302842456133</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8791942363020837</v>
       </c>
       <c r="P8">
-        <v>1.047148561993836</v>
+        <v>0.224170827010397</v>
       </c>
       <c r="Q8">
-        <v>2.104312593534573</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.9630691404188774</v>
+      </c>
+      <c r="S8">
+        <v>1.798667444648871</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.345776981547374</v>
+        <v>1.270912538335722</v>
       </c>
       <c r="C9">
-        <v>0.1177721805649483</v>
+        <v>0.134036299270619</v>
       </c>
       <c r="D9">
-        <v>0.1092928988223889</v>
+        <v>0.1185691821084305</v>
       </c>
       <c r="E9">
-        <v>0.06346494555879367</v>
+        <v>0.06505173854162472</v>
       </c>
       <c r="F9">
-        <v>0.8830913776206657</v>
+        <v>0.7823969130432928</v>
       </c>
       <c r="G9">
-        <v>0.0008227350082908869</v>
+        <v>0.01889260017357497</v>
       </c>
       <c r="H9">
-        <v>0.005079299795046621</v>
+        <v>0.002938667561895314</v>
       </c>
       <c r="I9">
-        <v>0.006366141916623214</v>
+        <v>0.003542648554135219</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4991178725571928</v>
+        <v>0.4213454032076456</v>
       </c>
       <c r="L9">
-        <v>0.06710852992842575</v>
+        <v>0.1806439228733581</v>
       </c>
       <c r="M9">
-        <v>1.179482117848323</v>
+        <v>0.1378554598360147</v>
       </c>
       <c r="N9">
-        <v>0.2658813009551011</v>
+        <v>0.0657125347652272</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.173485772399346</v>
       </c>
       <c r="P9">
-        <v>0.9745927937000003</v>
+        <v>0.2855863627792843</v>
       </c>
       <c r="Q9">
-        <v>2.201610292774689</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.9046429772174296</v>
+      </c>
+      <c r="S9">
+        <v>1.8830663657819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.580934081730589</v>
+        <v>1.480519602850251</v>
       </c>
       <c r="C10">
-        <v>0.1351730044099213</v>
+        <v>0.1520154596897072</v>
       </c>
       <c r="D10">
-        <v>0.1247444183877207</v>
+        <v>0.1373270377136464</v>
       </c>
       <c r="E10">
-        <v>0.06818572424927893</v>
+        <v>0.06958515334228466</v>
       </c>
       <c r="F10">
-        <v>0.921025622333687</v>
+        <v>0.7998696396007361</v>
       </c>
       <c r="G10">
-        <v>0.0008185023571694652</v>
+        <v>0.02246981750078092</v>
       </c>
       <c r="H10">
-        <v>0.002982144789063668</v>
+        <v>0.00166567405127438</v>
       </c>
       <c r="I10">
-        <v>0.004169054962352092</v>
+        <v>0.002493380443276294</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5014850039102505</v>
+        <v>0.4136743523696751</v>
       </c>
       <c r="L10">
-        <v>0.06990223513849614</v>
+        <v>0.170590316443608</v>
       </c>
       <c r="M10">
-        <v>1.394476363701813</v>
+        <v>0.1436065846617609</v>
       </c>
       <c r="N10">
-        <v>0.2992938701988095</v>
+        <v>0.06749281237470051</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.370662985807343</v>
       </c>
       <c r="P10">
-        <v>0.9242944160998956</v>
+        <v>0.3205790037872447</v>
       </c>
       <c r="Q10">
-        <v>2.258015677248267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.8663952558664398</v>
+      </c>
+      <c r="S10">
+        <v>1.884126634460955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.613853089141429</v>
+        <v>1.496521553774954</v>
       </c>
       <c r="C11">
-        <v>0.151813954960204</v>
+        <v>0.1616514430865266</v>
       </c>
       <c r="D11">
-        <v>0.1151404148943271</v>
+        <v>0.1330004599482919</v>
       </c>
       <c r="E11">
-        <v>0.05301426767203843</v>
+        <v>0.05545325065022588</v>
       </c>
       <c r="F11">
-        <v>0.8564803067214015</v>
+        <v>0.7121783584307906</v>
       </c>
       <c r="G11">
-        <v>0.0008173022789186383</v>
+        <v>0.05655878040533224</v>
       </c>
       <c r="H11">
-        <v>0.02152678070369163</v>
+        <v>0.02032246151804884</v>
       </c>
       <c r="I11">
-        <v>0.004221604028531445</v>
+        <v>0.002951454830022904</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4634185894851974</v>
+        <v>0.3681425293486917</v>
       </c>
       <c r="L11">
-        <v>0.05765363475435148</v>
+        <v>0.151887239553762</v>
       </c>
       <c r="M11">
-        <v>1.45935294317124</v>
+        <v>0.1291767459190076</v>
       </c>
       <c r="N11">
-        <v>0.2379085466967297</v>
+        <v>0.05665569540617454</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.402734093049474</v>
       </c>
       <c r="P11">
-        <v>0.9048252463928037</v>
+        <v>0.2545395560513128</v>
       </c>
       <c r="Q11">
-        <v>2.102278192321563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.8668225462783141</v>
+      </c>
+      <c r="S11">
+        <v>1.660913090578958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.59464732118775</v>
+        <v>1.47398733477209</v>
       </c>
       <c r="C12">
-        <v>0.1618273064953968</v>
+        <v>0.1672304272414493</v>
       </c>
       <c r="D12">
-        <v>0.1039849140931324</v>
+        <v>0.1235229833932294</v>
       </c>
       <c r="E12">
-        <v>0.04206172378925288</v>
+        <v>0.04479189795597271</v>
       </c>
       <c r="F12">
-        <v>0.7975776876930212</v>
+        <v>0.6488814543041883</v>
       </c>
       <c r="G12">
-        <v>0.0008170967536500653</v>
+        <v>0.0812808662532305</v>
       </c>
       <c r="H12">
-        <v>0.06036524735193183</v>
+        <v>0.05915042099800161</v>
       </c>
       <c r="I12">
-        <v>0.004161980935615262</v>
+        <v>0.002943703309399304</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4336547283836971</v>
+        <v>0.3393632286989678</v>
       </c>
       <c r="L12">
-        <v>0.053237168136127</v>
+        <v>0.1413671741828715</v>
       </c>
       <c r="M12">
-        <v>1.468282440347679</v>
+        <v>0.1185224296527245</v>
       </c>
       <c r="N12">
-        <v>0.1849744940043365</v>
+        <v>0.0536134211291488</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.396995564323248</v>
       </c>
       <c r="P12">
-        <v>0.9034973119577465</v>
+        <v>0.1983154412992576</v>
       </c>
       <c r="Q12">
-        <v>1.968101775603003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.8807171887465515</v>
+      </c>
+      <c r="S12">
+        <v>1.513844536574993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.530722265471326</v>
+        <v>1.420682365904042</v>
       </c>
       <c r="C13">
-        <v>0.1680755306059751</v>
+        <v>0.1727692297909584</v>
       </c>
       <c r="D13">
-        <v>0.0911995609831493</v>
+        <v>0.1088355721569343</v>
       </c>
       <c r="E13">
-        <v>0.03362921276252528</v>
+        <v>0.03618348584603481</v>
       </c>
       <c r="F13">
-        <v>0.7371857992445427</v>
+        <v>0.6016851136641606</v>
       </c>
       <c r="G13">
-        <v>0.0008176665576364187</v>
+        <v>0.07582575160310512</v>
       </c>
       <c r="H13">
-        <v>0.1164730505632861</v>
+        <v>0.1151318283571499</v>
       </c>
       <c r="I13">
-        <v>0.004410398690828821</v>
+        <v>0.003043216662775627</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4067020498327487</v>
+        <v>0.3210700477408963</v>
       </c>
       <c r="L13">
-        <v>0.0542876750247796</v>
+        <v>0.1355165424906986</v>
       </c>
       <c r="M13">
-        <v>1.43420682574623</v>
+        <v>0.1104656006852345</v>
       </c>
       <c r="N13">
-        <v>0.1364152561368854</v>
+        <v>0.0560371922498355</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.367877856872695</v>
       </c>
       <c r="P13">
-        <v>0.9150083080896323</v>
+        <v>0.1474348506099119</v>
       </c>
       <c r="Q13">
-        <v>1.835682861090731</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.8988288141615044</v>
+      </c>
+      <c r="S13">
+        <v>1.419248076718304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.465330752038085</v>
+        <v>1.368628759607816</v>
       </c>
       <c r="C14">
-        <v>0.1709688629361494</v>
+        <v>0.1769474441483965</v>
       </c>
       <c r="D14">
-        <v>0.08167240832401745</v>
+        <v>0.09665957867179742</v>
       </c>
       <c r="E14">
-        <v>0.02926084793374795</v>
+        <v>0.03163550377325297</v>
       </c>
       <c r="F14">
-        <v>0.6943803188609365</v>
+        <v>0.5745567400890579</v>
       </c>
       <c r="G14">
-        <v>0.0008184185834893914</v>
+        <v>0.05948507301930661</v>
       </c>
       <c r="H14">
-        <v>0.1661554884385339</v>
+        <v>0.1646693642225898</v>
       </c>
       <c r="I14">
-        <v>0.004830175321969499</v>
+        <v>0.003274035149829047</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3891185478005497</v>
+        <v>0.312141882195256</v>
       </c>
       <c r="L14">
-        <v>0.05828132647664219</v>
+        <v>0.1330627814722813</v>
       </c>
       <c r="M14">
-        <v>1.390918395304936</v>
+        <v>0.1058288551908539</v>
       </c>
       <c r="N14">
-        <v>0.1056753667502477</v>
+        <v>0.06092633094496236</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.336485231444527</v>
       </c>
       <c r="P14">
-        <v>0.9292447025734738</v>
+        <v>0.1154010064365494</v>
       </c>
       <c r="Q14">
-        <v>1.743799746237627</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.9123081018713535</v>
+      </c>
+      <c r="S14">
+        <v>1.372382426065059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.439229124387793</v>
+        <v>1.34833409520536</v>
       </c>
       <c r="C15">
-        <v>0.1710675038018508</v>
+        <v>0.1781638580039981</v>
       </c>
       <c r="D15">
-        <v>0.07900881540211913</v>
+        <v>0.0928173938382173</v>
       </c>
       <c r="E15">
-        <v>0.02837701274788884</v>
+        <v>0.03070804537358507</v>
       </c>
       <c r="F15">
-        <v>0.6830757554962759</v>
+        <v>0.5698127606148944</v>
       </c>
       <c r="G15">
-        <v>0.0008187806468837526</v>
+        <v>0.0511682638047688</v>
       </c>
       <c r="H15">
-        <v>0.1788268847221985</v>
+        <v>0.1772680851715194</v>
       </c>
       <c r="I15">
-        <v>0.005139471959526354</v>
+        <v>0.003507738111538927</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3849901900852508</v>
+        <v>0.3112625424908231</v>
       </c>
       <c r="L15">
-        <v>0.05959369110510693</v>
+        <v>0.1330476872665685</v>
       </c>
       <c r="M15">
-        <v>1.371266567282106</v>
+        <v>0.104969500816253</v>
       </c>
       <c r="N15">
-        <v>0.09842190258536476</v>
+        <v>0.06245792778843651</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.323311050946216</v>
       </c>
       <c r="P15">
-        <v>0.9349580348800046</v>
+        <v>0.1079264691853226</v>
       </c>
       <c r="Q15">
-        <v>1.720261332606469</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.9156065727464835</v>
+      </c>
+      <c r="S15">
+        <v>1.36773992246593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.351181070693286</v>
+        <v>1.281741362847328</v>
       </c>
       <c r="C16">
-        <v>0.1623712698087161</v>
+        <v>0.1758232995208573</v>
       </c>
       <c r="D16">
-        <v>0.0753353764024709</v>
+        <v>0.08465211210326373</v>
       </c>
       <c r="E16">
-        <v>0.02824235298733813</v>
+        <v>0.03052549809384786</v>
       </c>
       <c r="F16">
-        <v>0.6786007794542996</v>
+        <v>0.5886457537785645</v>
       </c>
       <c r="G16">
-        <v>0.0008204780252652354</v>
+        <v>0.02338325827585841</v>
       </c>
       <c r="H16">
-        <v>0.1669783525897657</v>
+        <v>0.1650270055162366</v>
       </c>
       <c r="I16">
-        <v>0.006147655222723536</v>
+        <v>0.004053225110355108</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3888114155882398</v>
+        <v>0.324760231895489</v>
       </c>
       <c r="L16">
-        <v>0.05804426490058034</v>
+        <v>0.1392729100660812</v>
       </c>
       <c r="M16">
-        <v>1.286041295459142</v>
+        <v>0.1078447725127525</v>
       </c>
       <c r="N16">
-        <v>0.09543729556027358</v>
+        <v>0.06101196399353981</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.267562749434859</v>
       </c>
       <c r="P16">
-        <v>0.9518346586722259</v>
+        <v>0.1056496456887714</v>
       </c>
       <c r="Q16">
-        <v>1.720587511421755</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.9147539947037586</v>
+      </c>
+      <c r="S16">
+        <v>1.435259396152986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.318192399558285</v>
+        <v>1.256000789786981</v>
       </c>
       <c r="C17">
-        <v>0.1542010432555259</v>
+        <v>0.1705546927144326</v>
       </c>
       <c r="D17">
-        <v>0.07749461779163624</v>
+        <v>0.0851887812765213</v>
       </c>
       <c r="E17">
-        <v>0.03017335383744513</v>
+        <v>0.03239640843519975</v>
       </c>
       <c r="F17">
-        <v>0.6976952756003385</v>
+        <v>0.6154521865390308</v>
       </c>
       <c r="G17">
-        <v>0.0008213853744261677</v>
+        <v>0.01771426073820503</v>
       </c>
       <c r="H17">
-        <v>0.1297198903195778</v>
+        <v>0.1275421148485378</v>
       </c>
       <c r="I17">
-        <v>0.006736530269016328</v>
+        <v>0.00438952898192646</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.400956913619023</v>
+        <v>0.3392499468556345</v>
       </c>
       <c r="L17">
-        <v>0.05418647832232537</v>
+        <v>0.1455204955965215</v>
       </c>
       <c r="M17">
-        <v>1.243738612782096</v>
+        <v>0.1119856718385037</v>
       </c>
       <c r="N17">
-        <v>0.1086838303721578</v>
+        <v>0.05680619990509683</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.237555262720889</v>
       </c>
       <c r="P17">
-        <v>0.9573398977236245</v>
+        <v>0.1200942758719776</v>
       </c>
       <c r="Q17">
-        <v>1.769324251716114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.9108935602233998</v>
+      </c>
+      <c r="S17">
+        <v>1.506262691353825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.33040147612337</v>
+        <v>1.26746090306969</v>
       </c>
       <c r="C18">
-        <v>0.1451867814442664</v>
+        <v>0.1631245906889234</v>
       </c>
       <c r="D18">
-        <v>0.08509234972941471</v>
+        <v>0.09240058903152004</v>
       </c>
       <c r="E18">
-        <v>0.03550631988239505</v>
+        <v>0.03752274416253343</v>
       </c>
       <c r="F18">
-        <v>0.7411415774350871</v>
+        <v>0.6587257851518729</v>
       </c>
       <c r="G18">
-        <v>0.0008216680544962469</v>
+        <v>0.01635391933380648</v>
       </c>
       <c r="H18">
-        <v>0.07699797239618533</v>
+        <v>0.07476272978667708</v>
       </c>
       <c r="I18">
-        <v>0.006640961310489857</v>
+        <v>0.004175273049543904</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4230434807705343</v>
+        <v>0.3595096947953351</v>
       </c>
       <c r="L18">
-        <v>0.05095404606722198</v>
+        <v>0.1536273548105793</v>
       </c>
       <c r="M18">
-        <v>1.233367445652817</v>
+        <v>0.1188824409178579</v>
       </c>
       <c r="N18">
-        <v>0.1406470212925939</v>
+        <v>0.0527525215209792</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.231975567568924</v>
       </c>
       <c r="P18">
-        <v>0.9553844843928943</v>
+        <v>0.154148521592937</v>
       </c>
       <c r="Q18">
-        <v>1.869967908143721</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.9026874064948309</v>
+      </c>
+      <c r="S18">
+        <v>1.60649648266309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.373789932867169</v>
+        <v>1.305131183356337</v>
       </c>
       <c r="C19">
-        <v>0.1377310622589363</v>
+        <v>0.156773233232812</v>
       </c>
       <c r="D19">
-        <v>0.09709685545584534</v>
+        <v>0.1046995052268187</v>
       </c>
       <c r="E19">
-        <v>0.045211448632692</v>
+        <v>0.04687378262992326</v>
       </c>
       <c r="F19">
-        <v>0.8002699072922752</v>
+        <v>0.7130690886865807</v>
       </c>
       <c r="G19">
-        <v>0.0008214115889838558</v>
+        <v>0.0157298033006521</v>
       </c>
       <c r="H19">
-        <v>0.0313379483731353</v>
+        <v>0.02922721664651817</v>
       </c>
       <c r="I19">
-        <v>0.00656474679576835</v>
+        <v>0.004204874959579108</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4509546133997233</v>
+        <v>0.3830888663004117</v>
       </c>
       <c r="L19">
-        <v>0.05299112159753427</v>
+        <v>0.1626293322033199</v>
       </c>
       <c r="M19">
-        <v>1.24878195776742</v>
+        <v>0.1275653711662734</v>
       </c>
       <c r="N19">
-        <v>0.1913368830660787</v>
+        <v>0.05353965903697144</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.248199879891672</v>
       </c>
       <c r="P19">
-        <v>0.9509897831922487</v>
+        <v>0.2077766481248773</v>
       </c>
       <c r="Q19">
-        <v>2.00176317551788</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.8936484579424366</v>
+      </c>
+      <c r="S19">
+        <v>1.724914072108177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.511653142087397</v>
+        <v>1.423564561657372</v>
       </c>
       <c r="C20">
-        <v>0.1323869672445568</v>
+        <v>0.151543471215561</v>
       </c>
       <c r="D20">
-        <v>0.12088134382644</v>
+        <v>0.1308580283373715</v>
       </c>
       <c r="E20">
-        <v>0.06664694862790199</v>
+        <v>0.06776338450025321</v>
       </c>
       <c r="F20">
-        <v>0.9057566322330075</v>
+        <v>0.7996139498733541</v>
       </c>
       <c r="G20">
-        <v>0.0008196384854753936</v>
+        <v>0.01627510699865997</v>
       </c>
       <c r="H20">
-        <v>0.00346327437637628</v>
+        <v>0.001921730770051866</v>
       </c>
       <c r="I20">
-        <v>0.005537606037855802</v>
+        <v>0.003696395682095677</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4970960832549594</v>
+        <v>0.4167787216765575</v>
       </c>
       <c r="L20">
-        <v>0.06874005170957886</v>
+        <v>0.1735503689904689</v>
       </c>
       <c r="M20">
-        <v>1.337149414658853</v>
+        <v>0.14243314509201</v>
       </c>
       <c r="N20">
-        <v>0.2914602703179696</v>
+        <v>0.06672825866617949</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.327182149646802</v>
       </c>
       <c r="P20">
-        <v>0.9369600131754048</v>
+        <v>0.3129426916517275</v>
       </c>
       <c r="Q20">
-        <v>2.228490200618296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.8758532473606628</v>
+      </c>
+      <c r="S20">
+        <v>1.898192072699914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.705572761358638</v>
+        <v>1.567762288747957</v>
       </c>
       <c r="C21">
-        <v>0.1442512770048552</v>
+        <v>0.1526800313765762</v>
       </c>
       <c r="D21">
-        <v>0.1357795372638293</v>
+        <v>0.1580612045243868</v>
       </c>
       <c r="E21">
-        <v>0.07373350325156025</v>
+        <v>0.07653955083966224</v>
       </c>
       <c r="F21">
-        <v>0.9513248868462654</v>
+        <v>0.7790756275838078</v>
       </c>
       <c r="G21">
-        <v>0.0008163410330711385</v>
+        <v>0.07728620331005942</v>
       </c>
       <c r="H21">
-        <v>0.00179459549639216</v>
+        <v>0.0009139771591759605</v>
       </c>
       <c r="I21">
-        <v>0.003996363781980428</v>
+        <v>0.003014219921162464</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5069977059893489</v>
+        <v>0.3946985372932019</v>
       </c>
       <c r="L21">
-        <v>0.07413292872188038</v>
+        <v>0.1606906106207902</v>
       </c>
       <c r="M21">
-        <v>1.508101495610504</v>
+        <v>0.1405795206815874</v>
       </c>
       <c r="N21">
-        <v>0.3316354828174184</v>
+        <v>0.07051908360777048</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.43596142704456</v>
       </c>
       <c r="P21">
-        <v>0.8998360506036889</v>
+        <v>0.3519031610221504</v>
       </c>
       <c r="Q21">
-        <v>2.309342752132807</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.8522943257640314</v>
+      </c>
+      <c r="S21">
+        <v>1.787531926698961</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.831140237043797</v>
+        <v>1.658269184135634</v>
       </c>
       <c r="C22">
-        <v>0.1518003364457314</v>
+        <v>0.1526862426301676</v>
       </c>
       <c r="D22">
-        <v>0.1444342128707916</v>
+        <v>0.1760111102165638</v>
       </c>
       <c r="E22">
-        <v>0.07731972538409337</v>
+        <v>0.08154426500590262</v>
       </c>
       <c r="F22">
-        <v>0.9788902215000377</v>
+        <v>0.7602783089246188</v>
       </c>
       <c r="G22">
-        <v>0.0008142591569538554</v>
+        <v>0.1657802273008429</v>
       </c>
       <c r="H22">
-        <v>0.001087093492234459</v>
+        <v>0.0005211363026891291</v>
       </c>
       <c r="I22">
-        <v>0.002927818839449259</v>
+        <v>0.002321246899786189</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5129006996668721</v>
+        <v>0.3786079038006065</v>
       </c>
       <c r="L22">
-        <v>0.07672321083228439</v>
+        <v>0.1523177722853397</v>
       </c>
       <c r="M22">
-        <v>1.618388229006541</v>
+        <v>0.1385252698663528</v>
       </c>
       <c r="N22">
-        <v>0.3526032576777851</v>
+        <v>0.07218839110162278</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.501194922080231</v>
       </c>
       <c r="P22">
-        <v>0.8762292353245948</v>
+        <v>0.3715319988858141</v>
       </c>
       <c r="Q22">
-        <v>2.358848666809024</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.8411441177748245</v>
+      </c>
+      <c r="S22">
+        <v>1.704348900883986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.766916671331501</v>
+        <v>1.616618753903396</v>
       </c>
       <c r="C23">
-        <v>0.1470849444504125</v>
+        <v>0.1533811630603026</v>
       </c>
       <c r="D23">
-        <v>0.1397026000300201</v>
+        <v>0.1648622858534026</v>
       </c>
       <c r="E23">
-        <v>0.07548625492423255</v>
+        <v>0.07865727378393927</v>
       </c>
       <c r="F23">
-        <v>0.9659119348548586</v>
+        <v>0.7784149264936957</v>
       </c>
       <c r="G23">
-        <v>0.0008153519181491325</v>
+        <v>0.1000958591454761</v>
       </c>
       <c r="H23">
-        <v>0.001436755847163962</v>
+        <v>0.0007068452944067882</v>
       </c>
       <c r="I23">
-        <v>0.003145091701062697</v>
+        <v>0.002283856513684235</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5110478651716832</v>
+        <v>0.3912633763494142</v>
       </c>
       <c r="L23">
-        <v>0.0754778370836604</v>
+        <v>0.1580705756717506</v>
       </c>
       <c r="M23">
-        <v>1.559785037033464</v>
+        <v>0.1413572234934186</v>
       </c>
       <c r="N23">
-        <v>0.3408780597032148</v>
+        <v>0.0714689515362501</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.473341136227816</v>
       </c>
       <c r="P23">
-        <v>0.8888526641406189</v>
+        <v>0.3609546323246065</v>
       </c>
       <c r="Q23">
-        <v>2.337296729003612</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.8452743973802583</v>
+      </c>
+      <c r="S23">
+        <v>1.771838003694739</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.519028115532194</v>
+        <v>1.430507191281777</v>
       </c>
       <c r="C24">
-        <v>0.1304999414243611</v>
+        <v>0.1496248211568485</v>
       </c>
       <c r="D24">
-        <v>0.1220302422525208</v>
+        <v>0.131965193041168</v>
       </c>
       <c r="E24">
-        <v>0.06840957706090833</v>
+        <v>0.06946543149357609</v>
       </c>
       <c r="F24">
-        <v>0.9151830874133751</v>
+        <v>0.808697379451317</v>
       </c>
       <c r="G24">
-        <v>0.0008196065532454708</v>
+        <v>0.01603249898903858</v>
       </c>
       <c r="H24">
-        <v>0.003262491306870841</v>
+        <v>0.001743384376229784</v>
       </c>
       <c r="I24">
-        <v>0.004985326725090999</v>
+        <v>0.00306105812799462</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5025017634769178</v>
+        <v>0.4216210960022302</v>
       </c>
       <c r="L24">
-        <v>0.07050400474514618</v>
+        <v>0.1754063058598874</v>
       </c>
       <c r="M24">
-        <v>1.337691646062154</v>
+        <v>0.1442032829007687</v>
       </c>
       <c r="N24">
-        <v>0.2975146324902198</v>
+        <v>0.06830649714716586</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.32818022906261</v>
       </c>
       <c r="P24">
-        <v>0.937867376875162</v>
+        <v>0.3193446800666919</v>
       </c>
       <c r="Q24">
-        <v>2.251285202974088</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.875646756520494</v>
+      </c>
+      <c r="S24">
+        <v>1.919942232256716</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.251381060768665</v>
+        <v>1.185099704411812</v>
       </c>
       <c r="C25">
-        <v>0.112870608346995</v>
+        <v>0.1286510353778283</v>
       </c>
       <c r="D25">
-        <v>0.1030929618667642</v>
+        <v>0.1115029242707521</v>
       </c>
       <c r="E25">
-        <v>0.06076501320367811</v>
+        <v>0.06251504155088305</v>
       </c>
       <c r="F25">
-        <v>0.8631735943204291</v>
+        <v>0.7684882583003372</v>
       </c>
       <c r="G25">
-        <v>0.0008244020314194952</v>
+        <v>0.01965207538774072</v>
       </c>
       <c r="H25">
-        <v>0.006210145212157292</v>
+        <v>0.003692135961975707</v>
       </c>
       <c r="I25">
-        <v>0.007979171491641956</v>
+        <v>0.00473438375919244</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4945820796754248</v>
+        <v>0.4200532028857893</v>
       </c>
       <c r="L25">
-        <v>0.06505216015893112</v>
+        <v>0.1828865847929961</v>
       </c>
       <c r="M25">
-        <v>1.09856200898588</v>
+        <v>0.1345615001829508</v>
       </c>
       <c r="N25">
-        <v>0.2510567571097226</v>
+        <v>0.06411825781792757</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.0971427574502</v>
       </c>
       <c r="P25">
-        <v>0.9934136685546013</v>
+        <v>0.2699325710255778</v>
       </c>
       <c r="Q25">
-        <v>2.166209709710557</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.9199593377393462</v>
+      </c>
+      <c r="S25">
+        <v>1.863514627593474</v>
       </c>
     </row>
   </sheetData>
